--- a/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Finance - NBFC/Bajaj Finance Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>11,175.03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11,853.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12,486.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13,386.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>14,487.43</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13,386.23</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12,486.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11,853.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11,175.03</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>14487.43</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>11175.03</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>12677.656</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>232.83</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>247.23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>273.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>336.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>336.88</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>273.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>247.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>232.83</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>336.88</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>232.83</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>272.71</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>11,407.86</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12,100.23</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12,760.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13,723.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>14,487.43</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13,723.11</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12,760.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12,100.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11,407.86</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>14487.43</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>11407.86</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>12895.824</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1,452.45</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,527.22</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,503.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,631.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1,683.37</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,631.59</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,503.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,527.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1,452.45</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1683.37</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1452.45</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1559.624</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>145.21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>161.91</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>185.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>195.66</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>185.77</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>178.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>161.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>145.21</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>195.66</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>145.21</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>173.448</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,058.55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,247.52</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,277.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,671.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,903.30</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,671.36</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,277.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,247.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,058.55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1903.3</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1058.55</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1431.648</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,211.70</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,257.35</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,377.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,432.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,518.54</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,432.99</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,377.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,257.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,211.70</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1518.54</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1211.7</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1359.612</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>7,539.95</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7,906.23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8,423.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8,801.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>9,186.56</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8,801.40</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8,423.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7,906.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7,539.95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>9186.559999999999</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>7539.95</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>8371.492</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4.36</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>3.288</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>7,542.07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7,909.62</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8,427.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8,804.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>9,190.92</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8,804.03</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8,427.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7,909.62</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7,542.07</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>9190.92</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>7542.07</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>8374.780000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>3,351.26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3,618.32</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,860.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4,201.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>4,544.31</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4,201.59</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3,860.80</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3,618.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3,351.26</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>4544.31</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>3351.26</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>3915.256</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>4,190.81</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,291.30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4,566.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4,602.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4,646.61</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4,602.44</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4,566.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4,291.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4,190.81</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>4646.61</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>4190.81</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>4459.523999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2,544.11</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2544.11</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2544.11</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2544.11</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>4,190.81</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4,291.30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4,566.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4,602.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>7,190.72</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4,602.44</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4,566.46</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4,291.30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4,190.81</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>7190.72</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>4190.81</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>4968.346</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,085.06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,113.91</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,164.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,200.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,577.01</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,200.90</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,164.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,113.91</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,085.06</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1577.01</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1085.06</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1228.286</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>3,105.75</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3,177.39</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3,401.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3,401.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>5,613.71</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3,401.54</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3,401.91</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3,177.39</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3,105.75</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>5613.71</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>3105.75</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>3740.06</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>3,105.75</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3,177.39</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3,401.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3,401.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>5,613.71</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3,401.54</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3,401.91</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3,177.39</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3,105.75</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>5613.71</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>3105.75</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>3740.06</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>121.06</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>123.54</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>123.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>123.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>123.73</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>123.70</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>123.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>123.54</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>121.06</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>123.73</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>121.06</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>123.126</v>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>51.89</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>90.76</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>55.03</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>55.07</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>51.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>51.32</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>90.76000000000001</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>51.32</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>60.814</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>51.69</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>54.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>90.53</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>54.87</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>54.88</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>51.69</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>90.53</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>51.13</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>60.62</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>51.89</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>90.76</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>55.03</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>55.07</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>51.89</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>51.32</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>90.76000000000001</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>51.32</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>60.814</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>51.69</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>54.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>54.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>90.53</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>54.87</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>54.88</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>51.69</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>90.53</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>51.13</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>60.62</v>
       </c>
     </row>
     <row r="30"/>
